--- a/StructureDefinition-profile-SpecimenDefinition.xlsx
+++ b/StructureDefinition-profile-SpecimenDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2620" uniqueCount="454">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7938901-06:00</t>
+    <t>2026-02-09T22:05:43.3331034-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -416,33 +416,478 @@
     <t>SpecimenDefinition.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:url</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.url|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.url from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An absolute URL that is used to identify this SpecimenDefinition when it is referenced in a specification, model, design or an instance. This SHALL be a URL, SHOULD be globally unique, and SHOULD be an address at which this SpecimenDefinition is (or will be) published. The URL SHOULD include the major version of the SpecimenDefinition. For more information see Technical and Business Versions.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.url` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:version</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.version|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.version from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The identifier that is used to identify this version of the SpecimenDefinition when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the SpecimenDefinition author and is not expected to be globally unique.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.version` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.versionAlgorithm[x]` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.name|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.name from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A natural language name identifying the {{title}}. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.name` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:title</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.title|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.title from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short, descriptive, user-friendly title for the SpecimenDefinition.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.title` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:derivedFromUri</t>
+  </si>
+  <si>
+    <t>derivedFromUri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.derivedFromUri|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.derivedFromUri from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally-defined type of specimen, guideline or other definition that is adhered to in whole or in part by this definition.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.derivedFromUri` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.status|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.status from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The current state of theSpecimenDefinition.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.status` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:experimental</t>
+  </si>
+  <si>
+    <t>experimental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.experimental|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.experimental from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A flag to indicate that this SpecimenDefinition is not authored for  genuine usage.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.experimental` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.subject|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.subject[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A code or group definition that describes the intended subject  from which this kind of specimen is to be collected.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.subject[x]` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:subjectCanonical</t>
+  </si>
+  <si>
+    <t>subjectCanonical</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:subjectReference</t>
+  </si>
+  <si>
+    <t>subjectReference</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.date|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.date from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>For draft definitions, indicates the date of initial creation. For active definitions, represents the date of activation. For withdrawn definitions, indicates the date of withdrawal.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.date` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:publisher</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.publisher|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.publisher from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Helps establish the "authority/credibility" of the SpecimenDefinition. May also allow for contact.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.publisher` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:contact</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.contact|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.contact from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Contact details to assist a user in finding and communicating with the publisher.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.contact` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.description|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.description from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A free text natural language description of the SpecimenDefinition from the consumer's perspective.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.description` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:useContext</t>
+  </si>
+  <si>
+    <t>useContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.useContext|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.useContext from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The content was developed with a focus and intent of supporting the contexts that are listed. These terms may be used to assist with indexing and searching of specimen definitions.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.useContext` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:jurisdiction</t>
+  </si>
+  <si>
+    <t>jurisdiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.jurisdiction|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.jurisdiction from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A jurisdiction in which the SpecimenDefinition is intended to be used.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.jurisdiction` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:purpose</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.purpose|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.purpose from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Explains why this SpecimeDefinition is needed and why it has been designed as it has.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.purpose` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:copyright</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.copyright|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.copyright from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Copyright statement relating to the SpecimenDefinition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the SpecimenDefinition.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.copyright` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.copyrightLabel|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.copyrightLabel` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:approvalDate</t>
+  </si>
+  <si>
+    <t>approvalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.approvalDate|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.approvalDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date on which the asset content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.approvalDate` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:lastReviewDate</t>
+  </si>
+  <si>
+    <t>lastReviewDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.lastReviewDate|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.lastReviewDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date on which the asset content was last reviewed. Review happens periodically after that, but doesn't change the original approval date.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.lastReviewDate` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:effectivePeriod</t>
+  </si>
+  <si>
+    <t>effectivePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.effectivePeriod|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.effectivePeriod from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The period during which the SpecimenDefinition content was or is planned to be effective.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.effectivePeriod` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:derivedFromCanonical</t>
+  </si>
+  <si>
+    <t>derivedFromCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.derivedFromCanonical from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/SpecimenDefinition in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.derivedFromCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `SpecimenDefinition.derivedFromCanonical` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -450,6 +895,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -577,10 +1025,45 @@
     <t>SpecimenDefinition.typeTested.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.typeTested.extension:singleUse</t>
+  </si>
+  <si>
+    <t>singleUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.typeTested.singleUse|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.typeTested.singleUse from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Specimen can be used by only one test or panel if the value is "true".</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.typeTested.singleUse` is will have a context of SpecimenDefinition.typeTested based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.typeTested.extension:testingDestination</t>
+  </si>
+  <si>
+    <t>testingDestination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.typeTested.testingDestination|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.typeTested.testingDestination from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Where the specimen will be tested: e.g., lab, sector, device or any combination of these.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.typeTested.testingDestination` is will have a context of SpecimenDefinition.typeTested based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.typeTested.modifierExtension</t>
@@ -667,6 +1150,12 @@
     <t>SpecimenDefinition.typeTested.container.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>SpecimenDefinition.typeTested.container.modifierExtension</t>
   </si>
   <si>
@@ -783,17 +1272,10 @@
     <t>SpecimenDefinition.typeTested.container.additive.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>SpecimenDefinition.typeTested.container.additive.extension:additive</t>
+  </si>
+  <si>
+    <t>additive</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.typeTested.container.additive|0.0.1-snapshot-3}
@@ -803,8 +1285,7 @@
     <t>Cross-version extension for SpecimenDefinition.typeTested.container.additive from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `SpecimenDefinition.typeTested.container.additive` is mapped to FHIR R4 element `SpecimenDefinition.typeTested.container.additive`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.typeTested.container.additive.modifierExtension</t>
@@ -1255,7 +1736,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL50"/>
+  <dimension ref="A1:AL76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1264,9 +1745,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.5625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="56.390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="19.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1274,7 +1755,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="108.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="108.53515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2180,11 +2661,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -2199,17 +2680,15 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2246,16 +2725,14 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>135</v>
@@ -2276,7 +2753,7 @@
         <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -2284,43 +2761,43 @@
         <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
       </c>
@@ -2368,7 +2845,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2377,7 +2854,7 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>136</v>
@@ -2386,17 +2863,19 @@
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>75</v>
       </c>
@@ -2414,18 +2893,20 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2474,19 +2955,19 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>75</v>
@@ -2497,12 +2978,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2520,18 +3003,20 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>75</v>
@@ -2556,13 +3041,13 @@
         <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>75</v>
@@ -2580,22 +3065,22 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>75</v>
@@ -2603,12 +3088,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>75</v>
       </c>
@@ -2617,7 +3104,7 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -2626,18 +3113,20 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
@@ -2662,13 +3151,13 @@
         <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>75</v>
@@ -2686,7 +3175,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2695,13 +3184,13 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>75</v>
@@ -2709,12 +3198,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>75</v>
       </c>
@@ -2732,18 +3223,20 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>75</v>
@@ -2756,7 +3249,7 @@
         <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
         <v>75</v>
@@ -2792,22 +3285,22 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>75</v>
@@ -2815,12 +3308,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>75</v>
       </c>
@@ -2838,18 +3333,20 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -2874,13 +3371,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -2898,7 +3395,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -2907,10 +3404,10 @@
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
@@ -2921,41 +3418,45 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3004,7 +3505,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3013,10 +3514,10 @@
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
@@ -3027,12 +3528,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>75</v>
       </c>
@@ -3053,15 +3556,17 @@
         <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3110,44 +3615,46 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="D18" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
@@ -3159,16 +3666,16 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3218,7 +3725,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3227,7 +3734,7 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>136</v>
@@ -3236,51 +3743,51 @@
         <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="D19" t="s" s="2">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
       </c>
@@ -3328,7 +3835,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3337,7 +3844,7 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>136</v>
@@ -3346,17 +3853,19 @@
         <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>75</v>
       </c>
@@ -3377,15 +3886,17 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="M20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>75</v>
@@ -3398,7 +3909,7 @@
         <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>75</v>
@@ -3434,22 +3945,22 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
@@ -3457,12 +3968,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>75</v>
       </c>
@@ -3483,15 +3996,17 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -3516,13 +4031,13 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>75</v>
@@ -3540,19 +4055,19 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>75</v>
@@ -3563,18 +4078,20 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>85</v>
@@ -3589,15 +4106,17 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -3610,7 +4129,7 @@
         <v>75</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>75</v>
@@ -3622,13 +4141,13 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>75</v>
@@ -3646,22 +4165,22 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>75</v>
@@ -3669,12 +4188,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>75</v>
       </c>
@@ -3683,7 +4204,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -3695,15 +4216,17 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -3752,19 +4275,19 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>75</v>
@@ -3775,12 +4298,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>75</v>
       </c>
@@ -3801,15 +4326,17 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -3858,37 +4385,39 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="D25" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3907,16 +4436,16 @@
         <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>134</v>
+        <v>227</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -3966,7 +4495,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3975,7 +4504,7 @@
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>136</v>
@@ -3984,19 +4513,21 @@
         <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4009,26 +4540,24 @@
         <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4076,7 +4605,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4085,7 +4614,7 @@
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>136</v>
@@ -4094,17 +4623,19 @@
         <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>75</v>
       </c>
@@ -4125,15 +4656,17 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>147</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4158,13 +4691,13 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>75</v>
@@ -4182,19 +4715,19 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>75</v>
@@ -4205,12 +4738,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>75</v>
       </c>
@@ -4231,15 +4766,17 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -4264,13 +4801,13 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>75</v>
@@ -4288,19 +4825,19 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>75</v>
@@ -4311,12 +4848,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>75</v>
       </c>
@@ -4337,18 +4876,18 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>147</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>75</v>
       </c>
@@ -4372,13 +4911,13 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>75</v>
@@ -4396,19 +4935,19 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>221</v>
+        <v>135</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>75</v>
@@ -4419,12 +4958,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>75</v>
       </c>
@@ -4445,15 +4986,17 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>161</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -4466,7 +5009,7 @@
         <v>75</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>75</v>
@@ -4502,22 +5045,22 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -4525,12 +5068,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>75</v>
       </c>
@@ -4551,15 +5096,17 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -4608,22 +5155,22 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4631,12 +5178,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>75</v>
       </c>
@@ -4657,15 +5206,17 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -4714,22 +5265,22 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>237</v>
+        <v>135</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>241</v>
+        <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -4737,12 +5288,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>75</v>
       </c>
@@ -4763,15 +5316,17 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>172</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -4820,7 +5375,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -4832,10 +5387,10 @@
         <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>245</v>
+        <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -4843,42 +5398,46 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>75</v>
+        <v>277</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>176</v>
+        <v>278</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -4926,33 +5485,33 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>178</v>
+        <v>282</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>179</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4960,11 +5519,11 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
       </c>
@@ -4972,16 +5531,16 @@
         <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>131</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5020,29 +5579,31 @@
         <v>75</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AC35" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>182</v>
+        <v>283</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>75</v>
@@ -5053,10 +5614,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5067,7 +5628,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5076,16 +5637,16 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5112,13 +5673,13 @@
         <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>75</v>
+        <v>292</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>75</v>
+        <v>293</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>75</v>
@@ -5136,22 +5697,22 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>182</v>
+        <v>287</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>254</v>
+        <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5159,14 +5720,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5179,26 +5740,22 @@
         <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>185</v>
+        <v>296</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>75</v>
       </c>
@@ -5222,13 +5779,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>75</v>
+        <v>298</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5246,7 +5803,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>187</v>
+        <v>295</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5258,21 +5815,21 @@
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5280,7 +5837,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>85</v>
@@ -5292,16 +5849,16 @@
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5316,7 +5873,7 @@
         <v>75</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>75</v>
+        <v>305</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>75</v>
@@ -5328,13 +5885,13 @@
         <v>75</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>258</v>
+        <v>75</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>75</v>
@@ -5352,10 +5909,10 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>85</v>
@@ -5367,7 +5924,7 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5375,10 +5932,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5389,7 +5946,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -5398,16 +5955,16 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>161</v>
+        <v>288</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>261</v>
+        <v>308</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5434,13 +5991,13 @@
         <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>75</v>
@@ -5458,13 +6015,13 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
@@ -5473,7 +6030,7 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -5481,10 +6038,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5495,7 +6052,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -5507,13 +6064,13 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>161</v>
+        <v>313</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5564,13 +6121,13 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>75</v>
@@ -5579,7 +6136,7 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -5587,10 +6144,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5613,13 +6170,13 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5670,7 +6227,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -5682,21 +6239,21 @@
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>272</v>
+        <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>75</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5719,13 +6276,13 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>274</v>
+        <v>131</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>275</v>
+        <v>132</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5752,31 +6309,29 @@
         <v>75</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>276</v>
+        <v>75</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>277</v>
+        <v>75</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -5788,10 +6343,10 @@
         <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>278</v>
+        <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -5799,12 +6354,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>75</v>
       </c>
@@ -5813,7 +6370,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
@@ -5825,15 +6382,17 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
@@ -5882,7 +6441,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -5891,10 +6450,10 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>75</v>
@@ -5905,12 +6464,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>75</v>
       </c>
@@ -5919,7 +6480,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -5931,15 +6492,17 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>161</v>
+        <v>331</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>176</v>
+        <v>332</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -5988,37 +6551,37 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>130</v>
+        <v>336</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6031,24 +6594,26 @@
         <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>132</v>
+        <v>337</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>181</v>
+        <v>338</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>75</v>
       </c>
@@ -6096,7 +6661,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>182</v>
+        <v>339</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6114,51 +6679,47 @@
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>179</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>284</v>
+        <v>340</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>284</v>
+        <v>340</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>185</v>
+        <v>342</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>75</v>
       </c>
@@ -6170,7 +6731,7 @@
         <v>75</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>75</v>
@@ -6206,33 +6767,33 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>187</v>
+        <v>340</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>75</v>
+        <v>344</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6255,13 +6816,13 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>147</v>
+        <v>288</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>287</v>
+        <v>347</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6288,13 +6849,13 @@
         <v>75</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>150</v>
+        <v>291</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>75</v>
@@ -6312,7 +6873,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6327,7 +6888,7 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6335,10 +6896,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>291</v>
+        <v>349</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>291</v>
+        <v>349</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6346,7 +6907,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>85</v>
@@ -6361,13 +6922,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>292</v>
+        <v>105</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>294</v>
+        <v>351</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6382,7 +6943,7 @@
         <v>75</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>75</v>
@@ -6394,13 +6955,13 @@
         <v>75</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>75</v>
+        <v>353</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>75</v>
+        <v>354</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>75</v>
+        <v>355</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>75</v>
@@ -6418,10 +6979,10 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>291</v>
+        <v>349</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>85</v>
@@ -6433,7 +6994,7 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>75</v>
+        <v>356</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
@@ -6441,10 +7002,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>295</v>
+        <v>357</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>295</v>
+        <v>357</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6467,13 +7028,13 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>296</v>
+        <v>358</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>297</v>
+        <v>359</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6524,7 +7085,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>295</v>
+        <v>357</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -6547,10 +7108,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6573,13 +7134,13 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>161</v>
+        <v>302</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6594,7 +7155,7 @@
         <v>75</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>301</v>
+        <v>75</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>75</v>
@@ -6630,7 +7191,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -6642,12 +7203,2788 @@
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AK50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AK53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AC61" s="2"/>
+      <c r="AD61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-SpecimenDefinition.xlsx
+++ b/StructureDefinition-profile-SpecimenDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2620" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="442">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.3331034-06:00</t>
+    <t>2026-02-17T14:42:26.9159832-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -456,7 +456,7 @@
     <t>An absolute URL that is used to identify this SpecimenDefinition when it is referenced in a specification, model, design or an instance. This SHALL be a URL, SHOULD be globally unique, and SHOULD be an address at which this SpecimenDefinition is (or will be) published. The URL SHOULD include the major version of the SpecimenDefinition. For more information see Technical and Business Versions.</t>
   </si>
   <si>
-    <t>Element `SpecimenDefinition.url` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Element `SpecimenDefinition.url` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -479,7 +479,7 @@
     <t>The identifier that is used to identify this version of the SpecimenDefinition when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the SpecimenDefinition author and is not expected to be globally unique.</t>
   </si>
   <si>
-    <t>Element `SpecimenDefinition.version` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Element `SpecimenDefinition.version` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.extension:versionAlgorithm</t>
@@ -498,7 +498,7 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `SpecimenDefinition.versionAlgorithm[x]` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Element `SpecimenDefinition.versionAlgorithm[x]` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.extension:name</t>
@@ -517,7 +517,7 @@
     <t>A natural language name identifying the {{title}}. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
   </si>
   <si>
-    <t>Element `SpecimenDefinition.name` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Element `SpecimenDefinition.name` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.extension:title</t>
@@ -536,7 +536,7 @@
     <t>A short, descriptive, user-friendly title for the SpecimenDefinition.</t>
   </si>
   <si>
-    <t>Element `SpecimenDefinition.title` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Element `SpecimenDefinition.title` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.extension:derivedFromUri</t>
@@ -555,7 +555,7 @@
     <t>The URL pointing to an externally-defined type of specimen, guideline or other definition that is adhered to in whole or in part by this definition.</t>
   </si>
   <si>
-    <t>Element `SpecimenDefinition.derivedFromUri` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Element `SpecimenDefinition.derivedFromUri` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.extension:status</t>
@@ -574,7 +574,7 @@
     <t>The current state of theSpecimenDefinition.</t>
   </si>
   <si>
-    <t>Element `SpecimenDefinition.status` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Element `SpecimenDefinition.status` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.extension:experimental</t>
@@ -593,7 +593,7 @@
     <t>A flag to indicate that this SpecimenDefinition is not authored for  genuine usage.</t>
   </si>
   <si>
-    <t>Element `SpecimenDefinition.experimental` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Element `SpecimenDefinition.experimental` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.extension:subject</t>
@@ -612,7 +612,7 @@
     <t>A code or group definition that describes the intended subject  from which this kind of specimen is to be collected.</t>
   </si>
   <si>
-    <t>Element `SpecimenDefinition.subject[x]` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Element `SpecimenDefinition.subject[x]` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.extension:subjectCanonical</t>
@@ -649,7 +649,7 @@
     <t>For draft definitions, indicates the date of initial creation. For active definitions, represents the date of activation. For withdrawn definitions, indicates the date of withdrawal.</t>
   </si>
   <si>
-    <t>Element `SpecimenDefinition.date` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Element `SpecimenDefinition.date` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.extension:publisher</t>
@@ -668,7 +668,7 @@
     <t>Helps establish the "authority/credibility" of the SpecimenDefinition. May also allow for contact.</t>
   </si>
   <si>
-    <t>Element `SpecimenDefinition.publisher` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Element `SpecimenDefinition.publisher` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.extension:contact</t>
@@ -687,7 +687,7 @@
     <t>Contact details to assist a user in finding and communicating with the publisher.</t>
   </si>
   <si>
-    <t>Element `SpecimenDefinition.contact` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Element `SpecimenDefinition.contact` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.extension:description</t>
@@ -706,7 +706,7 @@
     <t>A free text natural language description of the SpecimenDefinition from the consumer's perspective.</t>
   </si>
   <si>
-    <t>Element `SpecimenDefinition.description` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Element `SpecimenDefinition.description` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.extension:useContext</t>
@@ -725,7 +725,7 @@
     <t>The content was developed with a focus and intent of supporting the contexts that are listed. These terms may be used to assist with indexing and searching of specimen definitions.</t>
   </si>
   <si>
-    <t>Element `SpecimenDefinition.useContext` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Element `SpecimenDefinition.useContext` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.extension:jurisdiction</t>
@@ -744,7 +744,7 @@
     <t>A jurisdiction in which the SpecimenDefinition is intended to be used.</t>
   </si>
   <si>
-    <t>Element `SpecimenDefinition.jurisdiction` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Element `SpecimenDefinition.jurisdiction` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.extension:purpose</t>
@@ -763,7 +763,7 @@
     <t>Explains why this SpecimeDefinition is needed and why it has been designed as it has.</t>
   </si>
   <si>
-    <t>Element `SpecimenDefinition.purpose` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Element `SpecimenDefinition.purpose` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.extension:copyright</t>
@@ -782,7 +782,7 @@
     <t>Copyright statement relating to the SpecimenDefinition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the SpecimenDefinition.</t>
   </si>
   <si>
-    <t>Element `SpecimenDefinition.copyright` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Element `SpecimenDefinition.copyright` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.extension:copyrightLabel</t>
@@ -801,7 +801,7 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `SpecimenDefinition.copyrightLabel` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Element `SpecimenDefinition.copyrightLabel` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.extension:approvalDate</t>
@@ -820,7 +820,7 @@
     <t>The date on which the asset content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
   </si>
   <si>
-    <t>Element `SpecimenDefinition.approvalDate` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Element `SpecimenDefinition.approvalDate` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.extension:lastReviewDate</t>
@@ -839,7 +839,7 @@
     <t>The date on which the asset content was last reviewed. Review happens periodically after that, but doesn't change the original approval date.</t>
   </si>
   <si>
-    <t>Element `SpecimenDefinition.lastReviewDate` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Element `SpecimenDefinition.lastReviewDate` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.extension:effectivePeriod</t>
@@ -858,7 +858,7 @@
     <t>The period during which the SpecimenDefinition content was or is planned to be effective.</t>
   </si>
   <si>
-    <t>Element `SpecimenDefinition.effectivePeriod` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Element `SpecimenDefinition.effectivePeriod` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.extension:derivedFromCanonical</t>
@@ -878,7 +878,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.derivedFromCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `SpecimenDefinition.derivedFromCanonical` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+Element `SpecimenDefinition.derivedFromCanonical` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.modifierExtension</t>
@@ -1028,42 +1028,20 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>SpecimenDefinition.typeTested.extension:singleUse</t>
-  </si>
-  <si>
-    <t>singleUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.typeTested.singleUse|0.0.1-snapshot-3}
+    <t>SpecimenDefinition.typeTested.extension:typeTested</t>
+  </si>
+  <si>
+    <t>typeTested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.typeTested|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for SpecimenDefinition.typeTested.singleUse from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Specimen can be used by only one test or panel if the value is "true".</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.typeTested.singleUse` is will have a context of SpecimenDefinition.typeTested based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.typeTested.extension:testingDestination</t>
-  </si>
-  <si>
-    <t>testingDestination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.typeTested.testingDestination|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.typeTested.testingDestination from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Where the specimen will be tested: e.g., lab, sector, device or any combination of these.</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.typeTested.testingDestination` is will have a context of SpecimenDefinition.typeTested based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Cross-version extension for SpecimenDefinition.typeTested from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.typeTested` has is mapped to FHIR R4 element `SpecimenDefinition.typeTested`, but has no comparisons.</t>
   </si>
   <si>
     <t>SpecimenDefinition.typeTested.modifierExtension</t>
@@ -1270,22 +1248,6 @@
   </si>
   <si>
     <t>SpecimenDefinition.typeTested.container.additive.extension</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.typeTested.container.additive.extension:additive</t>
-  </si>
-  <si>
-    <t>additive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.typeTested.container.additive|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.typeTested.container.additive from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.typeTested.container.additive` is mapped to FHIR R4 element `SpecimenDefinition.typeTested.container.additive`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.typeTested.container.additive.modifierExtension</t>
@@ -1736,7 +1698,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL76"/>
+  <dimension ref="A1:AL74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1745,7 +1707,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.5625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="56.390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1755,7 +1717,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="108.53515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="98.1640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -6370,7 +6332,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
@@ -6388,10 +6350,10 @@
         <v>326</v>
       </c>
       <c r="M43" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6464,16 +6426,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="D44" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6486,24 +6446,26 @@
         <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>333</v>
-      </c>
       <c r="N44" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6551,7 +6513,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6560,7 +6522,7 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>136</v>
@@ -6569,51 +6531,47 @@
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>336</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>130</v>
+        <v>334</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>75</v>
       </c>
@@ -6625,7 +6583,7 @@
         <v>75</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>75</v>
@@ -6661,33 +6619,33 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>75</v>
+        <v>337</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6710,13 +6668,13 @@
         <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6731,7 +6689,7 @@
         <v>75</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>75</v>
@@ -6743,13 +6701,13 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>75</v>
+        <v>341</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>75</v>
+        <v>293</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -6767,7 +6725,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6782,7 +6740,7 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>344</v>
+        <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6790,10 +6748,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6801,7 +6759,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>85</v>
@@ -6816,13 +6774,13 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>288</v>
+        <v>105</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6837,7 +6795,7 @@
         <v>75</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>75</v>
+        <v>345</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>75</v>
@@ -6849,14 +6807,14 @@
         <v>75</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>75</v>
       </c>
@@ -6873,10 +6831,10 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>85</v>
@@ -6888,7 +6846,7 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>75</v>
+        <v>349</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6896,10 +6854,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6907,7 +6865,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>85</v>
@@ -6922,13 +6880,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>105</v>
+        <v>313</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6943,7 +6901,7 @@
         <v>75</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>352</v>
+        <v>75</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>75</v>
@@ -6955,13 +6913,13 @@
         <v>75</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>353</v>
+        <v>75</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>354</v>
+        <v>75</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>355</v>
+        <v>75</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>75</v>
@@ -6979,10 +6937,10 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>85</v>
@@ -6994,7 +6952,7 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>356</v>
+        <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
@@ -7002,10 +6960,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7028,13 +6986,13 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7085,7 +7043,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7097,32 +7055,32 @@
         <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>75</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>75</v>
+        <v>277</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
@@ -7134,15 +7092,17 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>302</v>
+        <v>130</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>75</v>
@@ -7191,19 +7151,19 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>75</v>
@@ -7214,14 +7174,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7234,24 +7194,26 @@
         <v>75</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>75</v>
       </c>
@@ -7299,7 +7261,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7317,51 +7279,47 @@
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>320</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>336</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>130</v>
+        <v>288</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>75</v>
       </c>
@@ -7385,13 +7343,13 @@
         <v>75</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>75</v>
+        <v>362</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>75</v>
@@ -7409,33 +7367,33 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7461,10 +7419,10 @@
         <v>288</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7494,10 +7452,10 @@
         <v>291</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>75</v>
@@ -7515,7 +7473,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7538,10 +7496,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7567,13 +7525,15 @@
         <v>288</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
       </c>
@@ -7600,11 +7560,11 @@
         <v>291</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="AA54" t="s" s="2">
         <v>75</v>
       </c>
@@ -7621,7 +7581,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7644,10 +7604,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7670,18 +7630,16 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>378</v>
-      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>75</v>
       </c>
@@ -7693,7 +7651,7 @@
         <v>75</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>75</v>
+        <v>377</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>75</v>
@@ -7705,13 +7663,13 @@
         <v>75</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>379</v>
+        <v>75</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>75</v>
@@ -7729,7 +7687,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7744,7 +7702,7 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>75</v>
+        <v>378</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>75</v>
@@ -7752,10 +7710,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7778,13 +7736,13 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>302</v>
+        <v>380</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7799,7 +7757,7 @@
         <v>75</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>384</v>
+        <v>75</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>75</v>
@@ -7835,7 +7793,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -7850,7 +7808,7 @@
         <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>75</v>
@@ -7858,10 +7816,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7884,13 +7842,13 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7941,7 +7899,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -7956,7 +7914,7 @@
         <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>75</v>
@@ -7964,10 +7922,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7978,7 +7936,7 @@
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>75</v>
@@ -7990,13 +7948,13 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>392</v>
+        <v>313</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8047,13 +8005,13 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>75</v>
@@ -8062,7 +8020,7 @@
         <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>75</v>
@@ -8070,10 +8028,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8084,7 +8042,7 @@
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>75</v>
@@ -8096,13 +8054,13 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>397</v>
+        <v>317</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>398</v>
+        <v>318</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8153,44 +8111,44 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>396</v>
+        <v>319</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>399</v>
+        <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>75</v>
+        <v>320</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>75</v>
+        <v>277</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>75</v>
@@ -8202,15 +8160,17 @@
         <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>302</v>
+        <v>130</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -8259,19 +8219,19 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
@@ -8282,14 +8242,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>75</v>
+        <v>329</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8302,22 +8262,26 @@
         <v>75</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>131</v>
+        <v>330</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>75</v>
       </c>
@@ -8353,17 +8317,19 @@
         <v>75</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC61" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8381,28 +8347,26 @@
         <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
@@ -8414,17 +8378,15 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>75</v>
@@ -8449,13 +8411,13 @@
         <v>75</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>75</v>
+        <v>398</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>75</v>
+        <v>399</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>75</v>
@@ -8473,22 +8435,22 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>322</v>
+        <v>396</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>75</v>
+        <v>392</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>75</v>
@@ -8496,46 +8458,42 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>336</v>
+        <v>75</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>130</v>
+        <v>302</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>337</v>
+        <v>401</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>75</v>
       </c>
@@ -8583,33 +8541,33 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>339</v>
+        <v>400</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>75</v>
+        <v>403</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8617,7 +8575,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>85</v>
@@ -8632,13 +8590,13 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>409</v>
+        <v>302</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8665,13 +8623,13 @@
         <v>75</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>410</v>
+        <v>75</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>75</v>
@@ -8689,10 +8647,10 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>85</v>
@@ -8704,7 +8662,7 @@
         <v>97</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
@@ -8712,10 +8670,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8738,13 +8696,13 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>302</v>
+        <v>409</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8795,7 +8753,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -8810,7 +8768,7 @@
         <v>97</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>75</v>
@@ -8818,10 +8776,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8832,7 +8790,7 @@
         <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>75</v>
@@ -8844,13 +8802,13 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8877,13 +8835,13 @@
         <v>75</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>75</v>
+        <v>416</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>75</v>
+        <v>417</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>75</v>
@@ -8901,13 +8859,13 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>75</v>
@@ -8916,7 +8874,7 @@
         <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>75</v>
@@ -8924,10 +8882,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8938,7 +8896,7 @@
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>75</v>
@@ -8950,13 +8908,13 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9007,13 +8965,13 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>75</v>
@@ -9022,7 +8980,7 @@
         <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>424</v>
+        <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>75</v>
@@ -9030,10 +8988,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9044,7 +9002,7 @@
         <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>75</v>
@@ -9056,13 +9014,13 @@
         <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>426</v>
+        <v>317</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>427</v>
+        <v>318</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9089,13 +9047,13 @@
         <v>75</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>428</v>
+        <v>75</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>429</v>
+        <v>75</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>75</v>
@@ -9113,37 +9071,37 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>425</v>
+        <v>319</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>430</v>
+        <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>75</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>75</v>
+        <v>277</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9162,15 +9120,17 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>313</v>
+        <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>432</v>
+        <v>355</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>75</v>
@@ -9219,7 +9179,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>431</v>
+        <v>322</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9231,53 +9191,57 @@
         <v>75</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>75</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>75</v>
+        <v>329</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>302</v>
+        <v>130</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>75</v>
       </c>
@@ -9325,44 +9289,44 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>320</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>277</v>
+        <v>75</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>75</v>
@@ -9374,17 +9338,15 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>130</v>
+        <v>288</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>362</v>
+        <v>426</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>75</v>
@@ -9409,13 +9371,13 @@
         <v>75</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>75</v>
+        <v>428</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>75</v>
+        <v>429</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>75</v>
@@ -9433,69 +9395,65 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>322</v>
+        <v>425</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>75</v>
+        <v>430</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>320</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>336</v>
+        <v>75</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>130</v>
+        <v>432</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>75</v>
       </c>
@@ -9543,33 +9501,33 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>339</v>
+        <v>431</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9592,13 +9550,13 @@
         <v>75</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>288</v>
+        <v>409</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9625,13 +9583,13 @@
         <v>75</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>440</v>
+        <v>75</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>441</v>
+        <v>75</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>75</v>
@@ -9649,7 +9607,7 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -9664,7 +9622,7 @@
         <v>97</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>442</v>
+        <v>75</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>75</v>
@@ -9672,10 +9630,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9698,13 +9656,13 @@
         <v>75</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>444</v>
+        <v>302</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9719,7 +9677,7 @@
         <v>75</v>
       </c>
       <c r="T74" t="s" s="2">
-        <v>75</v>
+        <v>441</v>
       </c>
       <c r="U74" t="s" s="2">
         <v>75</v>
@@ -9755,7 +9713,7 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -9773,218 +9731,6 @@
         <v>75</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL76" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-SpecimenDefinition.xlsx
+++ b/StructureDefinition-profile-SpecimenDefinition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.9159832-06:00</t>
+    <t>2026-02-20T11:59:20.9490336-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SpecimenDefinition|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/SpecimenDefinition</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -440,304 +440,76 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>SpecimenDefinition.extension:url</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.url|0.0.1-snapshot-3}
+    <t>SpecimenDefinition.extension:derivedFromUri</t>
+  </si>
+  <si>
+    <t>derivedFromUri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.derivedFromUri}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for SpecimenDefinition.url from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An absolute URL that is used to identify this SpecimenDefinition when it is referenced in a specification, model, design or an instance. This SHALL be a URL, SHOULD be globally unique, and SHOULD be an address at which this SpecimenDefinition is (or will be) published. The URL SHOULD include the major version of the SpecimenDefinition. For more information see Technical and Business Versions.</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.url` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+    <t>Cross-version extension for SpecimenDefinition.derivedFromUri from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally-defined type of specimen, guideline or other definition that is adhered to in whole or in part by this definition.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.derivedFromUri` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>SpecimenDefinition.extension:version</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.version|0.0.1-snapshot-3}
+    <t>SpecimenDefinition.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.subject}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for SpecimenDefinition.version from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The identifier that is used to identify this version of the SpecimenDefinition when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the SpecimenDefinition author and is not expected to be globally unique.</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.version` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.versionAlgorithm|0.0.1-snapshot-3}
+    <t>Cross-version extension for SpecimenDefinition.subject[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A code or group definition that describes the intended subject  from which this kind of specimen is to be collected.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.subject[x]` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:subjectCanonical</t>
+  </si>
+  <si>
+    <t>subjectCanonical</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:subjectReference</t>
+  </si>
+  <si>
+    <t>subjectReference</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:jurisdiction</t>
+  </si>
+  <si>
+    <t>jurisdiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.jurisdiction}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for SpecimenDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.versionAlgorithm[x]` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:name</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.name|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.name from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A natural language name identifying the {{title}}. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.name` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:title</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.title|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.title from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short, descriptive, user-friendly title for the SpecimenDefinition.</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.title` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:derivedFromUri</t>
-  </si>
-  <si>
-    <t>derivedFromUri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.derivedFromUri|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.derivedFromUri from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally-defined type of specimen, guideline or other definition that is adhered to in whole or in part by this definition.</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.derivedFromUri` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:status</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.status|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.status from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The current state of theSpecimenDefinition.</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.status` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:experimental</t>
-  </si>
-  <si>
-    <t>experimental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.experimental|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.experimental from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A flag to indicate that this SpecimenDefinition is not authored for  genuine usage.</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.experimental` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:subject</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.subject|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.subject[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A code or group definition that describes the intended subject  from which this kind of specimen is to be collected.</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.subject[x]` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:subjectCanonical</t>
-  </si>
-  <si>
-    <t>subjectCanonical</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:subjectReference</t>
-  </si>
-  <si>
-    <t>subjectReference</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:date</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.date|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.date from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>For draft definitions, indicates the date of initial creation. For active definitions, represents the date of activation. For withdrawn definitions, indicates the date of withdrawal.</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.date` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:publisher</t>
-  </si>
-  <si>
-    <t>publisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.publisher|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.publisher from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Helps establish the "authority/credibility" of the SpecimenDefinition. May also allow for contact.</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.publisher` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:contact</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.contact|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.contact from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Contact details to assist a user in finding and communicating with the publisher.</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.contact` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:description</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.description|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.description from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A free text natural language description of the SpecimenDefinition from the consumer's perspective.</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.description` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:useContext</t>
-  </si>
-  <si>
-    <t>useContext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.useContext|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.useContext from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The content was developed with a focus and intent of supporting the contexts that are listed. These terms may be used to assist with indexing and searching of specimen definitions.</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.useContext` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:jurisdiction</t>
-  </si>
-  <si>
-    <t>jurisdiction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.jurisdiction|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
     <t>Cross-version extension for SpecimenDefinition.jurisdiction from R5 for use in FHIR R4</t>
   </si>
   <si>
@@ -747,127 +519,13 @@
     <t>Element `SpecimenDefinition.jurisdiction` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
-    <t>SpecimenDefinition.extension:purpose</t>
-  </si>
-  <si>
-    <t>purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.purpose|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.purpose from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Explains why this SpecimeDefinition is needed and why it has been designed as it has.</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.purpose` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:copyright</t>
-  </si>
-  <si>
-    <t>copyright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.copyright|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.copyright from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Copyright statement relating to the SpecimenDefinition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the SpecimenDefinition.</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.copyright` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.copyrightLabel|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.copyrightLabel` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:approvalDate</t>
-  </si>
-  <si>
-    <t>approvalDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.approvalDate|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.approvalDate from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date on which the asset content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.approvalDate` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:lastReviewDate</t>
-  </si>
-  <si>
-    <t>lastReviewDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.lastReviewDate|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.lastReviewDate from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date on which the asset content was last reviewed. Review happens periodically after that, but doesn't change the original approval date.</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.lastReviewDate` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:effectivePeriod</t>
-  </si>
-  <si>
-    <t>effectivePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.effectivePeriod|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.effectivePeriod from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The period during which the SpecimenDefinition content was or is planned to be effective.</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.effectivePeriod` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
     <t>SpecimenDefinition.extension:derivedFromCanonical</t>
   </si>
   <si>
     <t>derivedFromCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
+    <t xml:space="preserve">Extension {alternate-canonical}
 </t>
   </si>
   <si>
@@ -881,6 +539,366 @@
 Element `SpecimenDefinition.derivedFromCanonical` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
+    <t>SpecimenDefinition.extension:approvalDate</t>
+  </si>
+  <si>
+    <t>approvalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-approvalDate}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.approvalDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date on which the artifact content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.approvalDate`: `http://hl7.org/fhir/StructureDefinition/artifact-approvalDate`.
+Element `SpecimenDefinition.approvalDate` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:contact</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-contact}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.contact from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Contact details to assist a user in finding and communicating with the publisher.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.contact`: `http://hl7.org/fhir/StructureDefinition/artifact-contact`.
+Element `SpecimenDefinition.contact` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:copyright</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-copyright}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.copyright from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A copyright statement relating to the artifact and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.copyright`: `http://hl7.org/fhir/StructureDefinition/artifact-copyright`.
+Element `SpecimenDefinition.copyright` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-copyrightLabel}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
+Element `SpecimenDefinition.copyrightLabel` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-date}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.date from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date  (and optionally time) when the artifact was last significantly changed. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the artifact changes.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.date`: `http://hl7.org/fhir/StructureDefinition/artifact-date`.
+Element `SpecimenDefinition.date` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-description}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.description from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A free text natural language description of the artifact from a consumer's perspective.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.description`: `http://hl7.org/fhir/StructureDefinition/artifact-description`.
+Element `SpecimenDefinition.description` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:effectivePeriod</t>
+  </si>
+  <si>
+    <t>effectivePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-effectivePeriod}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.effectivePeriod from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The period during which the artifact content was or is planned to be in active use.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.effectivePeriod`: `http://hl7.org/fhir/StructureDefinition/artifact-effectivePeriod`.
+Element `SpecimenDefinition.effectivePeriod` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:experimental</t>
+  </si>
+  <si>
+    <t>experimental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-experimental}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.experimental from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A Boolean value to indicate that this artifact is authored for testing purposes (or education/evaluation/marketing) and is not intended to be used for genuine usage.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.experimental`: `http://hl7.org/fhir/StructureDefinition/artifact-experimental`.
+Element `SpecimenDefinition.experimental` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:lastReviewDate</t>
+  </si>
+  <si>
+    <t>lastReviewDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-lastReviewDate}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.lastReviewDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.lastReviewDate`: `http://hl7.org/fhir/StructureDefinition/artifact-lastReviewDate`.
+Element `SpecimenDefinition.lastReviewDate` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-name}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.name from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A natural language name identifying the artifact. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.name`: `http://hl7.org/fhir/StructureDefinition/artifact-name`.
+Element `SpecimenDefinition.name` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:publisher</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-publisher}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.publisher from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The name of the organization or individual responsible for the release and ongoing maintenance of the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.publisher`: `http://hl7.org/fhir/StructureDefinition/artifact-publisher`.
+Element `SpecimenDefinition.publisher` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:purpose</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-purpose}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.purpose from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Explanation of why this artifact is needed and why it has been designed as it has.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.purpose`: `http://hl7.org/fhir/StructureDefinition/artifact-purpose`.
+Element `SpecimenDefinition.purpose` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-status}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.status from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The status of this artifact. Enables tracking the life-cycle of the content.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.status`: `http://hl7.org/fhir/StructureDefinition/artifact-status`.
+Element `SpecimenDefinition.status` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:title</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-title}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.title from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short, descriptive, user-friendly title for the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.title`: `http://hl7.org/fhir/StructureDefinition/artifact-title`.
+Element `SpecimenDefinition.title` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:url</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-url}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.url from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An absolute URI that is used to identify this artifact when it is referenced in a specification, model, design or an instance; also called its canonical identifier. This SHOULD be globally unique and SHOULD be a literal address at which an authoritative instance of this artifact is (or will be) published. This URL can be the target of a canonical reference. It SHALL remain the same when the artifact is stored on different servers.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.url`: `http://hl7.org/fhir/StructureDefinition/artifact-url`.
+Element `SpecimenDefinition.url` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:useContext</t>
+  </si>
+  <si>
+    <t>useContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-useContext}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.useContext from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate artifact instances.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.useContext`: `http://hl7.org/fhir/StructureDefinition/artifact-useContext`.
+Element `SpecimenDefinition.useContext` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:version</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-version}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.version from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The identifier that is used to identify this version of the artifact when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the artifact author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.version`: `http://hl7.org/fhir/StructureDefinition/artifact-version`.
+Element `SpecimenDefinition.version` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `SpecimenDefinition.versionAlgorithm[x]` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
     <t>SpecimenDefinition.modifierExtension</t>
   </si>
   <si>
@@ -936,7 +954,7 @@
     <t>The type of the specimen to be collected.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0487|2.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0487</t>
   </si>
   <si>
     <t>OM4-6</t>
@@ -1034,7 +1052,7 @@
     <t>typeTested</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.typeTested|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.typeTested}
 </t>
   </si>
   <si>
@@ -1263,7 +1281,7 @@
     <t>Substance added to specimen container.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0371|2.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0371</t>
   </si>
   <si>
     <t>SpecimenDefinition.typeTested.container.preparation</t>
@@ -1717,7 +1735,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="98.1640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.59765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2736,7 +2754,7 @@
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -2968,16 +2986,16 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3050,13 +3068,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>75</v>
@@ -3078,16 +3096,16 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3160,13 +3178,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>75</v>
@@ -3176,7 +3194,7 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -3188,16 +3206,16 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3270,13 +3288,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>75</v>
@@ -3298,16 +3316,16 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3366,7 +3384,7 @@
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>136</v>
@@ -3380,20 +3398,20 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>85</v>
@@ -3402,22 +3420,22 @@
         <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3476,7 +3494,7 @@
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>136</v>
@@ -3490,13 +3508,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>75</v>
@@ -3506,7 +3524,7 @@
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3518,16 +3536,16 @@
         <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3586,7 +3604,7 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>136</v>
@@ -3600,13 +3618,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>75</v>
@@ -3628,16 +3646,16 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3696,7 +3714,7 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>136</v>
@@ -3710,13 +3728,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>75</v>
@@ -3744,7 +3762,7 @@
         <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>191</v>
@@ -3806,7 +3824,7 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>136</v>
@@ -3820,13 +3838,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>75</v>
@@ -3848,16 +3866,16 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3916,7 +3934,7 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>136</v>
@@ -4026,7 +4044,7 @@
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>136</v>
@@ -4136,7 +4154,7 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>136</v>
@@ -4166,7 +4184,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -4246,7 +4264,7 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>136</v>
@@ -4356,7 +4374,7 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>136</v>
@@ -4386,7 +4404,7 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -4466,7 +4484,7 @@
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>136</v>
@@ -4496,7 +4514,7 @@
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
@@ -4576,7 +4594,7 @@
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>136</v>
@@ -4686,7 +4704,7 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>136</v>
@@ -4713,7 +4731,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>85</v>
@@ -4722,7 +4740,7 @@
         <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>75</v>
@@ -4796,7 +4814,7 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>136</v>
@@ -4906,7 +4924,7 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>136</v>
@@ -5016,7 +5034,7 @@
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>136</v>
@@ -5046,7 +5064,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -5126,7 +5144,7 @@
         <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>136</v>
@@ -5236,7 +5254,7 @@
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>136</v>
@@ -5266,7 +5284,7 @@
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-profile-SpecimenDefinition.xlsx
+++ b/StructureDefinition-profile-SpecimenDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="340">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9490336-06:00</t>
+    <t>2026-02-21T13:36:54.353431-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SpecimenDefinition</t>
+    <t>http://hl7.org/fhir/StructureDefinition/SpecimenDefinition|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,7 +446,7 @@
     <t>derivedFromUri</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.derivedFromUri}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.derivedFromUri|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -469,7 +469,7 @@
     <t>subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.subject}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.subject|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -506,7 +506,7 @@
     <t>jurisdiction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.jurisdiction}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.jurisdiction|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -517,386 +517,6 @@
   </si>
   <si>
     <t>Element `SpecimenDefinition.jurisdiction` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:derivedFromCanonical</t>
-  </si>
-  <si>
-    <t>derivedFromCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-canonical}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.derivedFromCanonical from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/SpecimenDefinition in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.derivedFromCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `SpecimenDefinition.derivedFromCanonical` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:approvalDate</t>
-  </si>
-  <si>
-    <t>approvalDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-approvalDate}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.approvalDate from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date on which the artifact content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.approvalDate`: `http://hl7.org/fhir/StructureDefinition/artifact-approvalDate`.
-Element `SpecimenDefinition.approvalDate` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:contact</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-contact}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.contact from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Contact details to assist a user in finding and communicating with the publisher.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.contact`: `http://hl7.org/fhir/StructureDefinition/artifact-contact`.
-Element `SpecimenDefinition.contact` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:copyright</t>
-  </si>
-  <si>
-    <t>copyright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyright}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.copyright from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A copyright statement relating to the artifact and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.copyright`: `http://hl7.org/fhir/StructureDefinition/artifact-copyright`.
-Element `SpecimenDefinition.copyright` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyrightLabel}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
-Element `SpecimenDefinition.copyrightLabel` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:date</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-date}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.date from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date  (and optionally time) when the artifact was last significantly changed. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the artifact changes.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.date`: `http://hl7.org/fhir/StructureDefinition/artifact-date`.
-Element `SpecimenDefinition.date` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:description</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-description}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.description from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A free text natural language description of the artifact from a consumer's perspective.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.description`: `http://hl7.org/fhir/StructureDefinition/artifact-description`.
-Element `SpecimenDefinition.description` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:effectivePeriod</t>
-  </si>
-  <si>
-    <t>effectivePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-effectivePeriod}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.effectivePeriod from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The period during which the artifact content was or is planned to be in active use.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.effectivePeriod`: `http://hl7.org/fhir/StructureDefinition/artifact-effectivePeriod`.
-Element `SpecimenDefinition.effectivePeriod` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:experimental</t>
-  </si>
-  <si>
-    <t>experimental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-experimental}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.experimental from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A Boolean value to indicate that this artifact is authored for testing purposes (or education/evaluation/marketing) and is not intended to be used for genuine usage.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.experimental`: `http://hl7.org/fhir/StructureDefinition/artifact-experimental`.
-Element `SpecimenDefinition.experimental` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:lastReviewDate</t>
-  </si>
-  <si>
-    <t>lastReviewDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-lastReviewDate}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.lastReviewDate from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.lastReviewDate`: `http://hl7.org/fhir/StructureDefinition/artifact-lastReviewDate`.
-Element `SpecimenDefinition.lastReviewDate` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:name</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-name}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.name from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A natural language name identifying the artifact. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.name`: `http://hl7.org/fhir/StructureDefinition/artifact-name`.
-Element `SpecimenDefinition.name` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:publisher</t>
-  </si>
-  <si>
-    <t>publisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-publisher}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.publisher from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The name of the organization or individual responsible for the release and ongoing maintenance of the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.publisher`: `http://hl7.org/fhir/StructureDefinition/artifact-publisher`.
-Element `SpecimenDefinition.publisher` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:purpose</t>
-  </si>
-  <si>
-    <t>purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-purpose}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.purpose from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Explanation of why this artifact is needed and why it has been designed as it has.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.purpose`: `http://hl7.org/fhir/StructureDefinition/artifact-purpose`.
-Element `SpecimenDefinition.purpose` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:status</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-status}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.status from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The status of this artifact. Enables tracking the life-cycle of the content.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.status`: `http://hl7.org/fhir/StructureDefinition/artifact-status`.
-Element `SpecimenDefinition.status` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:title</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-title}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.title from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short, descriptive, user-friendly title for the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.title`: `http://hl7.org/fhir/StructureDefinition/artifact-title`.
-Element `SpecimenDefinition.title` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:url</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-url}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.url from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An absolute URI that is used to identify this artifact when it is referenced in a specification, model, design or an instance; also called its canonical identifier. This SHOULD be globally unique and SHOULD be a literal address at which an authoritative instance of this artifact is (or will be) published. This URL can be the target of a canonical reference. It SHALL remain the same when the artifact is stored on different servers.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.url`: `http://hl7.org/fhir/StructureDefinition/artifact-url`.
-Element `SpecimenDefinition.url` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:useContext</t>
-  </si>
-  <si>
-    <t>useContext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-useContext}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.useContext from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate artifact instances.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.useContext`: `http://hl7.org/fhir/StructureDefinition/artifact-useContext`.
-Element `SpecimenDefinition.useContext` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:version</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-version}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.version from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The identifier that is used to identify this version of the artifact when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the artifact author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.version`: `http://hl7.org/fhir/StructureDefinition/artifact-version`.
-Element `SpecimenDefinition.version` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SpecimenDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SpecimenDefinition.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
-Element `SpecimenDefinition.versionAlgorithm[x]` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.modifierExtension</t>
@@ -954,7 +574,7 @@
     <t>The type of the specimen to be collected.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0487</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0487|2.0.0</t>
   </si>
   <si>
     <t>OM4-6</t>
@@ -1046,20 +666,42 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>SpecimenDefinition.typeTested.extension:typeTested</t>
-  </si>
-  <si>
-    <t>typeTested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.typeTested}
+    <t>SpecimenDefinition.typeTested.extension:singleUse</t>
+  </si>
+  <si>
+    <t>singleUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.typeTested.singleUse|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for SpecimenDefinition.typeTested from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `SpecimenDefinition.typeTested` has is mapped to FHIR R4 element `SpecimenDefinition.typeTested`, but has no comparisons.</t>
+    <t>Cross-version extension for SpecimenDefinition.typeTested.singleUse from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Specimen can be used by only one test or panel if the value is "true".</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.typeTested.singleUse` has a context of SpecimenDefinition.typeTested based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.typeTested.extension:testingDestination</t>
+  </si>
+  <si>
+    <t>testingDestination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.typeTested.testingDestination|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.typeTested.testingDestination from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Where the specimen will be tested: e.g., lab, sector, device or any combination of these.</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.typeTested.testingDestination` has a context of SpecimenDefinition.typeTested based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>SpecimenDefinition.typeTested.modifierExtension</t>
@@ -1268,6 +910,22 @@
     <t>SpecimenDefinition.typeTested.container.additive.extension</t>
   </si>
   <si>
+    <t>SpecimenDefinition.typeTested.container.additive.extension:additive</t>
+  </si>
+  <si>
+    <t>additive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SpecimenDefinition.typeTested.container.additive|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SpecimenDefinition.typeTested.container.additive from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `SpecimenDefinition.typeTested.container.additive` is mapped to FHIR R4 element `SpecimenDefinition.typeTested.container.additive` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
     <t>SpecimenDefinition.typeTested.container.additive.modifierExtension</t>
   </si>
   <si>
@@ -1281,7 +939,7 @@
     <t>Substance added to specimen container.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0371</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0371|2.0.0</t>
   </si>
   <si>
     <t>SpecimenDefinition.typeTested.container.preparation</t>
@@ -1716,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL74"/>
+  <dimension ref="A1:AL57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1725,9 +1383,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.5625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="56.390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.67578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1735,7 +1393,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.59765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="108.53515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2645,7 +2303,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -3291,13 +2949,11 @@
         <v>162</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3310,24 +2966,26 @@
         <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>75</v>
       </c>
@@ -3375,7 +3033,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3393,19 +3051,17 @@
         <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C16" t="s" s="2">
         <v>169</v>
       </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>75</v>
       </c>
@@ -3423,7 +3079,7 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>170</v>
@@ -3434,9 +3090,7 @@
       <c r="M16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3485,19 +3139,19 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
@@ -3508,14 +3162,12 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>75</v>
       </c>
@@ -3524,7 +3176,7 @@
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3533,20 +3185,18 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>179</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3571,13 +3221,13 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
@@ -3595,22 +3245,22 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -3618,14 +3268,12 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C18" t="s" s="2">
         <v>181</v>
       </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>75</v>
       </c>
@@ -3634,7 +3282,7 @@
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
@@ -3643,20 +3291,18 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>185</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3681,13 +3327,13 @@
         <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>75</v>
@@ -3705,7 +3351,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3717,10 +3363,10 @@
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -3728,14 +3374,12 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C19" t="s" s="2">
         <v>187</v>
       </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>75</v>
       </c>
@@ -3753,7 +3397,7 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>188</v>
@@ -3764,9 +3408,7 @@
       <c r="M19" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>191</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
@@ -3779,7 +3421,7 @@
         <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>75</v>
@@ -3815,22 +3457,22 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3838,14 +3480,12 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C20" t="s" s="2">
         <v>193</v>
       </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>75</v>
       </c>
@@ -3854,7 +3494,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -3863,20 +3503,18 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>197</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>75</v>
@@ -3901,13 +3539,13 @@
         <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>75</v>
@@ -3925,7 +3563,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3937,7 +3575,7 @@
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
@@ -3951,11 +3589,9 @@
         <v>198</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>75</v>
       </c>
@@ -3964,7 +3600,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -3976,17 +3612,15 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -4035,7 +3669,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4047,7 +3681,7 @@
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>75</v>
@@ -4058,14 +3692,12 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>75</v>
       </c>
@@ -4086,17 +3718,15 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -4145,37 +3775,35 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>75</v>
       </c>
@@ -4184,7 +3812,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -4196,17 +3824,15 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -4243,19 +3869,17 @@
         <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4278,13 +3902,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>75</v>
@@ -4306,16 +3930,16 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4365,7 +3989,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4374,7 +3998,7 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>136</v>
@@ -4388,13 +4012,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>75</v>
@@ -4404,7 +4028,7 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -4416,16 +4040,16 @@
         <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4475,7 +4099,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4484,7 +4108,7 @@
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>136</v>
@@ -4498,46 +4122,46 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4585,7 +4209,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4603,19 +4227,17 @@
         <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>75</v>
       </c>
@@ -4636,17 +4258,15 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4659,7 +4279,7 @@
         <v>75</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>75</v>
@@ -4695,22 +4315,22 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -4718,20 +4338,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>85</v>
@@ -4740,23 +4358,21 @@
         <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -4781,13 +4397,13 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>75</v>
@@ -4805,19 +4421,19 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>75</v>
@@ -4828,20 +4444,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>85</v>
@@ -4856,17 +4470,15 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>75</v>
@@ -4879,7 +4491,7 @@
         <v>75</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>75</v>
@@ -4891,13 +4503,13 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>75</v>
@@ -4915,22 +4527,22 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>135</v>
+        <v>235</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>75</v>
+        <v>242</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
@@ -4938,14 +4550,12 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>75</v>
       </c>
@@ -4966,17 +4576,15 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -5025,19 +4633,19 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>135</v>
+        <v>243</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>75</v>
@@ -5048,14 +4656,12 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>75</v>
       </c>
@@ -5064,7 +4670,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -5076,17 +4682,15 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
+        <v>203</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -5135,46 +4739,44 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -5186,16 +4788,16 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>269</v>
+        <v>166</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5245,7 +4847,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5263,51 +4865,51 @@
         <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>272</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
       </c>
@@ -5355,7 +4957,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5373,51 +4975,47 @@
         <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>277</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5441,13 +5039,13 @@
         <v>75</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>75</v>
@@ -5465,33 +5063,33 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5511,16 +5109,16 @@
         <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>284</v>
+        <v>174</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5547,13 +5145,13 @@
         <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>75</v>
@@ -5571,7 +5169,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5594,10 +5192,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5617,19 +5215,21 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>174</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>75</v>
       </c>
@@ -5653,13 +5253,13 @@
         <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>291</v>
+        <v>177</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>75</v>
@@ -5677,7 +5277,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5692,7 +5292,7 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>294</v>
+        <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5700,10 +5300,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5714,7 +5314,7 @@
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
@@ -5723,16 +5323,16 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>288</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5747,7 +5347,7 @@
         <v>75</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>75</v>
@@ -5759,13 +5359,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>298</v>
+        <v>75</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>299</v>
+        <v>75</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5783,13 +5383,13 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>75</v>
@@ -5798,7 +5398,7 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
@@ -5806,10 +5406,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5829,16 +5429,16 @@
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5853,7 +5453,7 @@
         <v>75</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>305</v>
+        <v>75</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>75</v>
@@ -5889,7 +5489,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5904,7 +5504,7 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5912,10 +5512,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5926,7 +5526,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -5935,16 +5535,16 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5971,13 +5571,13 @@
         <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>75</v>
@@ -5995,13 +5595,13 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
@@ -6010,7 +5610,7 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -6018,10 +5618,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6044,13 +5644,13 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>313</v>
+        <v>199</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6101,7 +5701,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6116,7 +5716,7 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -6124,10 +5724,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6150,13 +5750,13 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>302</v>
+        <v>188</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>317</v>
+        <v>203</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>318</v>
+        <v>204</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6207,7 +5807,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>319</v>
+        <v>205</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6225,15 +5825,15 @@
         <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>320</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6311,7 +5911,7 @@
         <v>134</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>322</v>
+        <v>208</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6334,13 +5934,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>75</v>
@@ -6362,16 +5962,16 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6421,7 +6021,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>322</v>
+        <v>208</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6444,14 +6044,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>329</v>
+        <v>222</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6473,16 +6073,16 @@
         <v>130</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>330</v>
+        <v>223</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>331</v>
+        <v>224</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>280</v>
+        <v>166</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>281</v>
+        <v>167</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -6531,7 +6131,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>332</v>
+        <v>225</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6554,10 +6154,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6565,7 +6165,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>85</v>
@@ -6580,13 +6180,13 @@
         <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6601,7 +6201,7 @@
         <v>75</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>75</v>
@@ -6613,13 +6213,13 @@
         <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>75</v>
+        <v>296</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>75</v>
+        <v>297</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>75</v>
@@ -6637,10 +6237,10 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>85</v>
@@ -6652,7 +6252,7 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
@@ -6660,10 +6260,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6686,13 +6286,13 @@
         <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>288</v>
+        <v>188</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6719,13 +6319,13 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>341</v>
+        <v>75</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>293</v>
+        <v>75</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -6743,7 +6343,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6758,7 +6358,7 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>75</v>
+        <v>301</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6766,10 +6366,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6777,7 +6377,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>85</v>
@@ -6792,13 +6392,13 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6813,7 +6413,7 @@
         <v>75</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>345</v>
+        <v>75</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>75</v>
@@ -6825,13 +6425,13 @@
         <v>75</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>346</v>
+        <v>75</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>347</v>
+        <v>75</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>348</v>
+        <v>75</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>75</v>
@@ -6849,10 +6449,10 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>85</v>
@@ -6864,7 +6464,7 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6872,10 +6472,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6898,13 +6498,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6955,7 +6555,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -6970,7 +6570,7 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
@@ -6978,10 +6578,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6992,7 +6592,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -7004,13 +6604,13 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>302</v>
+        <v>174</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7037,13 +6637,13 @@
         <v>75</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>75</v>
+        <v>314</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>75</v>
+        <v>315</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>75</v>
@@ -7061,37 +6661,37 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>75</v>
+        <v>316</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>320</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>277</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7110,17 +6710,15 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>75</v>
@@ -7169,7 +6767,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7181,57 +6779,53 @@
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>320</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>329</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>330</v>
+        <v>203</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>75</v>
       </c>
@@ -7279,44 +6873,44 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>332</v>
+        <v>205</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>128</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>75</v>
@@ -7328,15 +6922,17 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>288</v>
+        <v>130</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>359</v>
+        <v>248</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7361,13 +6957,13 @@
         <v>75</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>361</v>
+        <v>75</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>362</v>
+        <v>75</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>75</v>
@@ -7385,65 +6981,69 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>358</v>
+        <v>208</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>288</v>
+        <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>75</v>
       </c>
@@ -7467,13 +7067,13 @@
         <v>75</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>366</v>
+        <v>75</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>75</v>
@@ -7491,33 +7091,33 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>363</v>
+        <v>225</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7540,18 +7140,16 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>288</v>
+        <v>174</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>371</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
       </c>
@@ -7575,13 +7173,13 @@
         <v>75</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>291</v>
+        <v>177</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>75</v>
@@ -7599,7 +7197,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7614,7 +7212,7 @@
         <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>75</v>
+        <v>328</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>75</v>
@@ -7622,10 +7220,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7648,13 +7246,13 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>375</v>
+        <v>331</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7669,7 +7267,7 @@
         <v>75</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>377</v>
+        <v>75</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>75</v>
@@ -7705,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7720,7 +7318,7 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>378</v>
+        <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>75</v>
@@ -7728,10 +7326,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7754,13 +7352,13 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7811,7 +7409,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -7826,7 +7424,7 @@
         <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>383</v>
+        <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>75</v>
@@ -7834,10 +7432,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7860,13 +7458,13 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>385</v>
+        <v>188</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7881,7 +7479,7 @@
         <v>75</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>75</v>
+        <v>339</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>75</v>
@@ -7917,7 +7515,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -7932,1823 +7530,9 @@
         <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>388</v>
+        <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL74" t="s" s="2">
         <v>75</v>
       </c>
     </row>
